--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilwvet\ELTE\Referl\reallife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2CC6C3DE-8228-4AB7-9A14-DBC683E7A43A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21688A7-F25C-4F7C-A534-D9D99736BFF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="4" r:id="rId1"/>
@@ -18,12 +18,22 @@
     <sheet name="length_elim" sheetId="7" r:id="rId3"/>
     <sheet name="hd_tl_elim" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="57">
   <si>
     <t>Module</t>
   </si>
@@ -199,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1256,14 +1266,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="O111" sqref="O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4341,7 +4351,7 @@
         <v>4647.8505762119803</v>
       </c>
       <c r="I96" s="3">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="J96" s="7">
         <v>123</v>
@@ -4373,7 +4383,7 @@
         <v>4541.4252719462402</v>
       </c>
       <c r="I97" s="3">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="J97" s="7">
         <v>152</v>
@@ -4501,7 +4511,7 @@
         <v>4426.6307841894904</v>
       </c>
       <c r="I101" s="3">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="J101" s="7">
         <v>111</v>
@@ -4533,7 +4543,7 @@
         <v>4439.3602594055301</v>
       </c>
       <c r="I102" s="3">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="J102" s="7">
         <v>140</v>
@@ -4581,25 +4591,32 @@
       <c r="C104" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>8</v>
+      <c r="D104" s="8" t="str">
+        <f>D94</f>
+        <v>find</v>
       </c>
       <c r="E104" s="3">
+        <f t="shared" ref="E104:J108" si="0">E94-E99</f>
         <v>0</v>
       </c>
       <c r="F104" s="3">
+        <f t="shared" si="0"/>
         <v>8.0339228057350169</v>
       </c>
       <c r="G104" s="3">
+        <f t="shared" si="0"/>
         <v>-0.35253456221198043</v>
       </c>
       <c r="H104" s="3">
+        <f t="shared" si="0"/>
         <v>-69.826862057940161</v>
       </c>
       <c r="I104" s="3">
+        <f t="shared" si="0"/>
         <v>-24</v>
       </c>
       <c r="J104" s="7">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -4613,25 +4630,32 @@
       <c r="C105" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>9</v>
+      <c r="D105" s="8" t="str">
+        <f t="shared" ref="D105:D113" si="1">D95</f>
+        <v>number_to_hex</v>
       </c>
       <c r="E105" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F105" s="3">
+        <f t="shared" si="0"/>
         <v>-10.825925354408</v>
       </c>
       <c r="G105" s="3">
+        <f t="shared" si="0"/>
         <v>-2.0892857142857197</v>
       </c>
       <c r="H105" s="3">
+        <f t="shared" si="0"/>
         <v>-330.8778103120801</v>
       </c>
       <c r="I105" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J105" s="7">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -4645,25 +4669,32 @@
       <c r="C106" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>10</v>
+      <c r="D106" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>wait_for_port_reply</v>
       </c>
       <c r="E106" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F106" s="3">
+        <f t="shared" si="0"/>
         <v>-2.6028764357490104</v>
       </c>
       <c r="G106" s="3">
+        <f t="shared" si="0"/>
         <v>0.7159090909091006</v>
       </c>
       <c r="H106" s="3">
+        <f t="shared" si="0"/>
         <v>221.21979202248986</v>
       </c>
       <c r="I106" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J106" s="7">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -4677,25 +4708,32 @@
       <c r="C107" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>11</v>
+      <c r="D107" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>type</v>
       </c>
       <c r="E107" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F107" s="3">
+        <f t="shared" si="0"/>
         <v>-2.554737166419045</v>
       </c>
       <c r="G107" s="3">
+        <f t="shared" si="0"/>
         <v>0.36775362318840088</v>
       </c>
       <c r="H107" s="3">
+        <f t="shared" si="0"/>
         <v>102.06501254071009</v>
       </c>
       <c r="I107" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J107" s="7">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -4709,25 +4747,32 @@
       <c r="C108" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>12</v>
+      <c r="D108" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>lengthelim5</v>
       </c>
       <c r="E108" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F108" s="3">
+        <f t="shared" si="0"/>
         <v>13.176952268336009</v>
       </c>
       <c r="G108" s="3">
+        <f t="shared" si="0"/>
         <v>-2.0909090909090899</v>
       </c>
       <c r="H108" s="3">
+        <f t="shared" si="0"/>
         <v>-210.83123629338002</v>
       </c>
       <c r="I108" s="3">
+        <f t="shared" si="0"/>
         <v>-27</v>
       </c>
       <c r="J108" s="7">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
@@ -4741,25 +4786,32 @@
       <c r="C109" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>8</v>
+      <c r="D109" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>find</v>
       </c>
       <c r="E109" s="3">
+        <f t="shared" ref="E109:J113" si="2">LN(E94/E99)</f>
         <v>0</v>
       </c>
       <c r="F109" s="3">
+        <f t="shared" si="2"/>
         <v>1.9415345217295991E-2</v>
       </c>
       <c r="G109" s="3">
+        <f t="shared" si="2"/>
         <v>-3.7244173172371095E-2</v>
       </c>
       <c r="H109" s="3">
+        <f t="shared" si="2"/>
         <v>-1.7828827955076083E-2</v>
       </c>
       <c r="I109" s="3">
+        <f t="shared" si="2"/>
         <v>-0.28090238546640223</v>
       </c>
       <c r="J109" s="7">
+        <f t="shared" si="2"/>
         <v>0.12475170497247684</v>
       </c>
     </row>
@@ -4773,25 +4825,32 @@
       <c r="C110" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>9</v>
+      <c r="D110" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>number_to_hex</v>
       </c>
       <c r="E110" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F110" s="3">
+        <f t="shared" si="2"/>
         <v>-8.2846728093708757E-2</v>
       </c>
       <c r="G110" s="3">
+        <f t="shared" si="2"/>
         <v>-0.39709685843764903</v>
       </c>
       <c r="H110" s="3">
+        <f t="shared" si="2"/>
         <v>-0.4799435865313566</v>
       </c>
       <c r="I110" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J110" s="7">
+        <f t="shared" si="2"/>
         <v>0.1561607307552825</v>
       </c>
     </row>
@@ -4805,25 +4864,32 @@
       <c r="C111" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>10</v>
+      <c r="D111" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>wait_for_port_reply</v>
       </c>
       <c r="E111" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F111" s="3">
+        <f t="shared" si="2"/>
         <v>-7.3233449592714165E-3</v>
       </c>
       <c r="G111" s="3">
+        <f t="shared" si="2"/>
         <v>5.6089466651044417E-2</v>
       </c>
       <c r="H111" s="3">
+        <f t="shared" si="2"/>
         <v>4.8766121691770886E-2</v>
       </c>
       <c r="I111" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J111" s="7">
+        <f t="shared" si="2"/>
         <v>0.10265415406008337</v>
       </c>
     </row>
@@ -4837,25 +4903,32 @@
       <c r="C112" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D112" s="8" t="s">
-        <v>11</v>
+      <c r="D112" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>type</v>
       </c>
       <c r="E112" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F112" s="3">
+        <f t="shared" si="2"/>
         <v>-7.0304281666218067E-3</v>
       </c>
       <c r="G112" s="3">
+        <f t="shared" si="2"/>
         <v>2.9761047160830032E-2</v>
       </c>
       <c r="H112" s="3">
+        <f t="shared" si="2"/>
         <v>2.2730618994209823E-2</v>
       </c>
       <c r="I112" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J112" s="7">
+        <f t="shared" si="2"/>
         <v>8.2238098236972007E-2</v>
       </c>
     </row>
@@ -4869,25 +4942,32 @@
       <c r="C113" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>12</v>
+      <c r="D113" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>lengthelim5</v>
       </c>
       <c r="E113" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F113" s="3">
+        <f t="shared" si="2"/>
         <v>8.7011376989628061E-2</v>
       </c>
       <c r="G113" s="3">
+        <f t="shared" si="2"/>
         <v>-0.26136476413440735</v>
       </c>
       <c r="H113" s="3">
+        <f t="shared" si="2"/>
         <v>-0.17435338714477844</v>
       </c>
       <c r="I113" s="3">
+        <f t="shared" si="2"/>
         <v>-0.55961578793542277</v>
       </c>
       <c r="J113" s="7">
+        <f t="shared" si="2"/>
         <v>0.44320543609101143</v>
       </c>
     </row>
@@ -5537,11 +5617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection sqref="A1:I93"/>
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8581,7 +8661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8704,7 +8784,7 @@
         <v>4647.8505762119803</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="I4">
         <v>123</v>
@@ -8733,7 +8813,7 @@
         <v>4541.4252719462402</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="I5">
         <v>152</v>
@@ -8849,7 +8929,7 @@
         <v>4426.6307841894904</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="I9">
         <v>111</v>
@@ -8878,7 +8958,7 @@
         <v>4439.3602594055301</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="I10">
         <v>140</v>
@@ -9279,7 +9359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
